--- a/testData/WebForm/TC033_WF_RRYN_OneN_TwoY_Test.xlsx
+++ b/testData/WebForm/TC033_WF_RRYN_OneN_TwoY_Test.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="98">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -279,18 +279,9 @@
     <t>9840031214</t>
   </si>
   <si>
-    <t>9840002058</t>
-  </si>
-  <si>
-    <t>9840051646</t>
-  </si>
-  <si>
     <t>9840008763</t>
   </si>
   <si>
-    <t>9840040228</t>
-  </si>
-  <si>
     <t>Carol</t>
   </si>
   <si>
@@ -307,9 +298,6 @@
   </si>
   <si>
     <t>9840081793</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>9840081322</t>
@@ -331,7 +319,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -712,92 +699,92 @@
   <dimension ref="A1:BG18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="O2" sqref="O2:O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="26.08984375"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.54296875"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.90625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.26953125"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="19" max="19" customWidth="true" width="10.54296875"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="22" max="22" customWidth="true" width="10.54296875"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="25" max="25" customWidth="true" width="10.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="32" max="33" customWidth="true" width="9.6328125"/>
-    <col min="34" max="35" customWidth="true" width="15.26953125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="37" max="37" customWidth="true" width="17.81640625"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="27.36328125"/>
-    <col min="39" max="40" bestFit="true" customWidth="true" width="13.90625"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="15.26953125"/>
-    <col min="42" max="43" customWidth="true" width="15.26953125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="45" max="46" customWidth="true" width="11.453125"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="48" max="54" customWidth="true" width="11.453125"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="10.7265625"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="10.6328125"/>
+    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.54296875" customWidth="1"/>
+    <col min="20" max="20" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.54296875" customWidth="1"/>
+    <col min="23" max="23" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.54296875" customWidth="1"/>
+    <col min="26" max="26" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="9.6328125" customWidth="1"/>
+    <col min="34" max="35" width="15.26953125" customWidth="1"/>
+    <col min="36" max="36" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.81640625" customWidth="1"/>
+    <col min="38" max="38" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="15.26953125" customWidth="1"/>
+    <col min="44" max="44" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="11.453125" customWidth="1"/>
+    <col min="47" max="47" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="48" max="54" width="11.453125" customWidth="1"/>
+    <col min="55" max="55" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -806,139 +793,139 @@
       <c r="N1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O1" t="s" s="0">
+      <c r="O1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s" s="0">
+      <c r="P1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" t="s" s="0">
+      <c r="Q1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" t="s" s="0">
+      <c r="R1" t="s">
         <v>27</v>
       </c>
-      <c r="S1" t="s" s="0">
+      <c r="S1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" t="s" s="0">
+      <c r="T1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" t="s" s="0">
+      <c r="U1" t="s">
         <v>27</v>
       </c>
-      <c r="V1" t="s" s="0">
+      <c r="V1" t="s">
         <v>24</v>
       </c>
-      <c r="W1" t="s" s="0">
+      <c r="W1" t="s">
         <v>26</v>
       </c>
-      <c r="X1" t="s" s="0">
+      <c r="X1" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" t="s" s="0">
+      <c r="Y1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" t="s" s="0">
+      <c r="Z1" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" t="s" s="0">
+      <c r="AA1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" t="s" s="0">
+      <c r="AB1" t="s">
         <v>46</v>
       </c>
-      <c r="AC1" t="s" s="0">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" t="s" s="0">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" t="s" s="0">
+      <c r="AE1" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" t="s" s="0">
+      <c r="AF1" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" t="s" s="0">
+      <c r="AG1" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" t="s" s="0">
+      <c r="AH1" t="s">
         <v>53</v>
       </c>
-      <c r="AI1" t="s" s="0">
+      <c r="AI1" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" t="s" s="0">
+      <c r="AJ1" t="s">
         <v>27</v>
       </c>
-      <c r="AK1" t="s" s="0">
+      <c r="AK1" t="s">
         <v>28</v>
       </c>
-      <c r="AL1" t="s" s="0">
+      <c r="AL1" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" t="s" s="0">
+      <c r="AM1" t="s">
         <v>64</v>
       </c>
-      <c r="AN1" t="s" s="0">
+      <c r="AN1" t="s">
         <v>65</v>
       </c>
-      <c r="AO1" t="s" s="0">
+      <c r="AO1" t="s">
         <v>49</v>
       </c>
-      <c r="AP1" t="s" s="0">
+      <c r="AP1" t="s">
         <v>56</v>
       </c>
-      <c r="AQ1" t="s" s="0">
+      <c r="AQ1" t="s">
         <v>26</v>
       </c>
-      <c r="AR1" t="s" s="0">
+      <c r="AR1" t="s">
         <v>27</v>
       </c>
-      <c r="AS1" t="s" s="0">
+      <c r="AS1" t="s">
         <v>59</v>
       </c>
-      <c r="AT1" t="s" s="0">
+      <c r="AT1" t="s">
         <v>26</v>
       </c>
-      <c r="AU1" t="s" s="0">
+      <c r="AU1" t="s">
         <v>27</v>
       </c>
-      <c r="AV1" t="s" s="0">
+      <c r="AV1" t="s">
         <v>60</v>
       </c>
-      <c r="AW1" t="s" s="0">
+      <c r="AW1" t="s">
         <v>26</v>
       </c>
-      <c r="AX1" t="s" s="0">
+      <c r="AX1" t="s">
         <v>27</v>
       </c>
-      <c r="AY1" t="s" s="0">
+      <c r="AY1" t="s">
         <v>61</v>
       </c>
-      <c r="AZ1" t="s" s="0">
+      <c r="AZ1" t="s">
         <v>26</v>
       </c>
-      <c r="BA1" t="s" s="0">
+      <c r="BA1" t="s">
         <v>27</v>
       </c>
-      <c r="BB1" t="s" s="0">
+      <c r="BB1" t="s">
         <v>62</v>
       </c>
-      <c r="BC1" t="s" s="0">
+      <c r="BC1" t="s">
         <v>26</v>
       </c>
-      <c r="BD1" t="s" s="0">
+      <c r="BD1" t="s">
         <v>27</v>
       </c>
-      <c r="BE1" t="s" s="0">
+      <c r="BE1" t="s">
         <v>63</v>
       </c>
-      <c r="BF1" t="s" s="0">
+      <c r="BF1" t="s">
         <v>54</v>
       </c>
-      <c r="BG1" t="s" s="0">
+      <c r="BG1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -952,31 +939,31 @@
       <c r="C2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>85</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="J2" t="s">
         <v>55</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s" s="0">
+      <c r="L2" t="s">
         <v>40</v>
       </c>
       <c r="M2" s="4" t="s">
@@ -985,43 +972,43 @@
       <c r="N2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O2" t="s" s="0">
-        <v>48</v>
+      <c r="O2" t="s">
+        <v>17</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="Q2" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="R2" t="s" s="0">
+      <c r="Q2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" t="s">
         <v>48</v>
       </c>
       <c r="S2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="T2" t="s" s="0">
+      <c r="T2" t="s">
         <v>48</v>
       </c>
-      <c r="U2" t="s" s="0">
+      <c r="U2" t="s">
         <v>48</v>
       </c>
       <c r="V2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="W2" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="X2" t="s" s="0">
+      <c r="W2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" t="s">
         <v>48</v>
       </c>
       <c r="Y2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Z2" t="s" s="0">
+      <c r="Z2" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" t="s" s="0">
+      <c r="AA2" t="s">
         <v>48</v>
       </c>
       <c r="AB2" s="8" t="s">
@@ -1051,20 +1038,20 @@
       <c r="AJ2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AK2" t="s" s="0">
+      <c r="AK2" t="s">
         <v>29</v>
       </c>
       <c r="AL2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO2" t="s">
         <v>94</v>
-      </c>
-      <c r="AM2" s="0">
-        <v>0</v>
-      </c>
-      <c r="AN2" t="s" s="0">
-        <v>100</v>
-      </c>
-      <c r="AO2" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="AP2" s="8" t="s">
         <v>74</v>
@@ -1076,7 +1063,7 @@
         <v>48</v>
       </c>
       <c r="AS2" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AT2" s="4" t="s">
         <v>17</v>
@@ -1085,7 +1072,7 @@
         <v>48</v>
       </c>
       <c r="AV2" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>17</v>
@@ -1094,7 +1081,7 @@
         <v>48</v>
       </c>
       <c r="AY2" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AZ2" s="4" t="s">
         <v>17</v>
@@ -1103,7 +1090,7 @@
         <v>48</v>
       </c>
       <c r="BB2" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="BC2" s="4" t="s">
         <v>17</v>
@@ -1126,28 +1113,28 @@
       <c r="C3" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s" s="0">
-        <v>88</v>
+      <c r="F3" t="s">
+        <v>86</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s" s="0">
+      <c r="H3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" t="s" s="0">
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s" s="0">
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="K3" t="s" s="0">
+      <c r="K3" t="s">
         <v>13</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -1159,8 +1146,8 @@
       <c r="N3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O3" t="s" s="0">
-        <v>48</v>
+      <c r="O3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.35">
@@ -1173,7 +1160,7 @@
       <c r="C4" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -1182,16 +1169,16 @@
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s" s="0">
+      <c r="H4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" t="s" s="0">
+      <c r="I4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" t="s" s="0">
+      <c r="J4" t="s">
         <v>55</v>
       </c>
-      <c r="K4" t="s" s="0">
+      <c r="K4" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="4" t="s">
@@ -1203,8 +1190,8 @@
       <c r="N4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O4" t="s" s="0">
-        <v>48</v>
+      <c r="O4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.35">
@@ -1217,28 +1204,28 @@
       <c r="C5" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s" s="0">
-        <v>95</v>
+      <c r="F5" t="s">
+        <v>92</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s" s="0">
+      <c r="H5" t="s">
         <v>34</v>
       </c>
-      <c r="I5" t="s" s="0">
+      <c r="I5" t="s">
         <v>10</v>
       </c>
-      <c r="J5" t="s" s="0">
+      <c r="J5" t="s">
         <v>55</v>
       </c>
-      <c r="K5" t="s" s="0">
+      <c r="K5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="4" t="s">
@@ -1250,7 +1237,7 @@
       <c r="N5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O5" t="s" s="0">
+      <c r="O5" t="s">
         <v>17</v>
       </c>
       <c r="AE5" s="4"/>
@@ -1265,7 +1252,7 @@
       <c r="C6" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -1274,19 +1261,19 @@
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" t="s" s="0">
+      <c r="H6" t="s">
         <v>35</v>
       </c>
-      <c r="I6" t="s" s="0">
+      <c r="I6" t="s">
         <v>10</v>
       </c>
-      <c r="J6" t="s" s="0">
+      <c r="J6" t="s">
         <v>55</v>
       </c>
-      <c r="K6" t="s" s="0">
+      <c r="K6" t="s">
         <v>13</v>
       </c>
-      <c r="L6" t="s" s="0">
+      <c r="L6" t="s">
         <v>41</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -1295,8 +1282,8 @@
       <c r="N6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O6" t="s" s="0">
-        <v>48</v>
+      <c r="O6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.35">
@@ -1309,14 +1296,14 @@
       <c r="C7" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s" s="0">
-        <v>97</v>
+      <c r="F7" t="s">
+        <v>93</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1324,16 +1311,16 @@
       <c r="H7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I7" t="s" s="0">
+      <c r="I7" t="s">
         <v>10</v>
       </c>
-      <c r="J7" t="s" s="0">
+      <c r="J7" t="s">
         <v>58</v>
       </c>
-      <c r="K7" t="s" s="0">
+      <c r="K7" t="s">
         <v>13</v>
       </c>
-      <c r="L7" t="s" s="0">
+      <c r="L7" t="s">
         <v>40</v>
       </c>
       <c r="M7" s="4" t="s">
@@ -1342,7 +1329,7 @@
       <c r="N7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O7" t="s" s="0">
+      <c r="O7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1356,7 +1343,7 @@
       <c r="C8" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -1365,19 +1352,19 @@
       <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="s" s="0">
+      <c r="H8" t="s">
         <v>36</v>
       </c>
-      <c r="I8" t="s" s="0">
+      <c r="I8" t="s">
         <v>10</v>
       </c>
-      <c r="J8" t="s" s="0">
+      <c r="J8" t="s">
         <v>55</v>
       </c>
-      <c r="K8" t="s" s="0">
+      <c r="K8" t="s">
         <v>13</v>
       </c>
-      <c r="L8" t="s" s="0">
+      <c r="L8" t="s">
         <v>39</v>
       </c>
       <c r="M8" s="4" t="s">
@@ -1386,8 +1373,8 @@
       <c r="N8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O8" t="s" s="0">
-        <v>48</v>
+      <c r="O8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.35">
@@ -1400,31 +1387,31 @@
       <c r="C9" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s" s="0">
-        <v>99</v>
+      <c r="F9" t="s">
+        <v>95</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="s" s="0">
+      <c r="H9" t="s">
         <v>37</v>
       </c>
-      <c r="I9" t="s" s="0">
+      <c r="I9" t="s">
         <v>10</v>
       </c>
-      <c r="J9" t="s" s="0">
+      <c r="J9" t="s">
         <v>55</v>
       </c>
-      <c r="K9" t="s" s="0">
+      <c r="K9" t="s">
         <v>13</v>
       </c>
-      <c r="L9" t="s" s="0">
+      <c r="L9" t="s">
         <v>66</v>
       </c>
       <c r="M9" s="4" t="s">
@@ -1433,7 +1420,7 @@
       <c r="N9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O9" t="s" s="0">
+      <c r="O9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1447,7 +1434,7 @@
       <c r="C10" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -1456,19 +1443,19 @@
       <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="s" s="0">
+      <c r="H10" t="s">
         <v>38</v>
       </c>
-      <c r="I10" t="s" s="0">
+      <c r="I10" t="s">
         <v>10</v>
       </c>
-      <c r="J10" t="s" s="0">
+      <c r="J10" t="s">
         <v>55</v>
       </c>
-      <c r="K10" t="s" s="0">
+      <c r="K10" t="s">
         <v>13</v>
       </c>
-      <c r="L10" t="s" s="0">
+      <c r="L10" t="s">
         <v>39</v>
       </c>
       <c r="M10" s="4" t="s">
@@ -1477,8 +1464,8 @@
       <c r="N10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O10" t="s" s="0">
-        <v>48</v>
+      <c r="O10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.35">
@@ -1491,7 +1478,7 @@
       <c r="C11" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -1500,19 +1487,19 @@
       <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H11" t="s" s="0">
+      <c r="H11" t="s">
         <v>76</v>
       </c>
-      <c r="I11" t="s" s="0">
+      <c r="I11" t="s">
         <v>10</v>
       </c>
-      <c r="J11" t="s" s="0">
+      <c r="J11" t="s">
         <v>55</v>
       </c>
-      <c r="K11" t="s" s="0">
+      <c r="K11" t="s">
         <v>13</v>
       </c>
-      <c r="L11" t="s" s="0">
+      <c r="L11" t="s">
         <v>84</v>
       </c>
       <c r="M11" s="4" t="s">
@@ -1521,8 +1508,8 @@
       <c r="N11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O11" t="s" s="0">
-        <v>48</v>
+      <c r="O11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.35">
@@ -1535,7 +1522,7 @@
       <c r="C12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -1544,19 +1531,19 @@
       <c r="G12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H12" t="s" s="0">
+      <c r="H12" t="s">
         <v>77</v>
       </c>
-      <c r="I12" t="s" s="0">
+      <c r="I12" t="s">
         <v>10</v>
       </c>
-      <c r="J12" t="s" s="0">
+      <c r="J12" t="s">
         <v>55</v>
       </c>
-      <c r="K12" t="s" s="0">
+      <c r="K12" t="s">
         <v>13</v>
       </c>
-      <c r="L12" t="s" s="0">
+      <c r="L12" t="s">
         <v>40</v>
       </c>
       <c r="M12" s="4" t="s">
@@ -1565,8 +1552,8 @@
       <c r="N12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O12" t="s" s="0">
-        <v>48</v>
+      <c r="O12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.35">
@@ -1579,7 +1566,7 @@
       <c r="C13" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -1588,19 +1575,19 @@
       <c r="G13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H13" t="s" s="0">
+      <c r="H13" t="s">
         <v>78</v>
       </c>
-      <c r="I13" t="s" s="0">
+      <c r="I13" t="s">
         <v>10</v>
       </c>
-      <c r="J13" t="s" s="0">
+      <c r="J13" t="s">
         <v>55</v>
       </c>
-      <c r="K13" t="s" s="0">
+      <c r="K13" t="s">
         <v>13</v>
       </c>
-      <c r="L13" t="s" s="0">
+      <c r="L13" t="s">
         <v>66</v>
       </c>
       <c r="M13" s="4" t="s">
@@ -1609,8 +1596,8 @@
       <c r="N13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O13" t="s" s="0">
-        <v>48</v>
+      <c r="O13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.35">
@@ -1623,7 +1610,7 @@
       <c r="C14" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -1632,19 +1619,19 @@
       <c r="G14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H14" t="s" s="0">
+      <c r="H14" t="s">
         <v>79</v>
       </c>
-      <c r="I14" t="s" s="0">
+      <c r="I14" t="s">
         <v>10</v>
       </c>
-      <c r="J14" t="s" s="0">
+      <c r="J14" t="s">
         <v>55</v>
       </c>
-      <c r="K14" t="s" s="0">
+      <c r="K14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" t="s" s="0">
+      <c r="L14" t="s">
         <v>41</v>
       </c>
       <c r="M14" s="4" t="s">
@@ -1653,8 +1640,8 @@
       <c r="N14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O14" t="s" s="0">
-        <v>48</v>
+      <c r="O14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.35">
@@ -1667,31 +1654,31 @@
       <c r="C15" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D15" t="s" s="0">
+      <c r="D15" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F15" t="s" s="0">
-        <v>101</v>
+      <c r="F15" t="s">
+        <v>97</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H15" t="s" s="0">
+      <c r="H15" t="s">
         <v>80</v>
       </c>
-      <c r="I15" t="s" s="0">
+      <c r="I15" t="s">
         <v>10</v>
       </c>
-      <c r="J15" t="s" s="0">
+      <c r="J15" t="s">
         <v>55</v>
       </c>
-      <c r="K15" t="s" s="0">
+      <c r="K15" t="s">
         <v>13</v>
       </c>
-      <c r="L15" t="s" s="0">
+      <c r="L15" t="s">
         <v>39</v>
       </c>
       <c r="M15" s="4" t="s">
@@ -1700,7 +1687,7 @@
       <c r="N15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O15" t="s" s="0">
+      <c r="O15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1714,7 +1701,7 @@
       <c r="C16" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -1723,19 +1710,19 @@
       <c r="G16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H16" t="s" s="0">
+      <c r="H16" t="s">
         <v>81</v>
       </c>
-      <c r="I16" t="s" s="0">
+      <c r="I16" t="s">
         <v>10</v>
       </c>
-      <c r="J16" t="s" s="0">
+      <c r="J16" t="s">
         <v>55</v>
       </c>
-      <c r="K16" t="s" s="0">
+      <c r="K16" t="s">
         <v>13</v>
       </c>
-      <c r="L16" t="s" s="0">
+      <c r="L16" t="s">
         <v>84</v>
       </c>
       <c r="M16" s="4" t="s">
@@ -1744,8 +1731,8 @@
       <c r="N16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O16" t="s" s="0">
-        <v>48</v>
+      <c r="O16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
@@ -1758,7 +1745,7 @@
       <c r="C17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D17" t="s" s="0">
+      <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -1767,19 +1754,19 @@
       <c r="G17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H17" t="s" s="0">
+      <c r="H17" t="s">
         <v>82</v>
       </c>
-      <c r="I17" t="s" s="0">
+      <c r="I17" t="s">
         <v>10</v>
       </c>
-      <c r="J17" t="s" s="0">
+      <c r="J17" t="s">
         <v>55</v>
       </c>
-      <c r="K17" t="s" s="0">
+      <c r="K17" t="s">
         <v>13</v>
       </c>
-      <c r="L17" t="s" s="0">
+      <c r="L17" t="s">
         <v>40</v>
       </c>
       <c r="M17" s="4" t="s">
@@ -1788,8 +1775,8 @@
       <c r="N17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O17" t="s" s="0">
-        <v>48</v>
+      <c r="O17" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
@@ -1802,7 +1789,7 @@
       <c r="C18" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D18" t="s" s="0">
+      <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -1811,19 +1798,19 @@
       <c r="G18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H18" t="s" s="0">
+      <c r="H18" t="s">
         <v>83</v>
       </c>
-      <c r="I18" t="s" s="0">
+      <c r="I18" t="s">
         <v>10</v>
       </c>
-      <c r="J18" t="s" s="0">
+      <c r="J18" t="s">
         <v>55</v>
       </c>
-      <c r="K18" t="s" s="0">
+      <c r="K18" t="s">
         <v>13</v>
       </c>
-      <c r="L18" t="s" s="0">
+      <c r="L18" t="s">
         <v>66</v>
       </c>
       <c r="M18" s="4" t="s">
@@ -1832,8 +1819,8 @@
       <c r="N18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O18" t="s" s="0">
-        <v>48</v>
+      <c r="O18" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/testData/WebForm/TC033_WF_RRYN_OneN_TwoY_Test.xlsx
+++ b/testData/WebForm/TC033_WF_RRYN_OneN_TwoY_Test.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="128">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -276,12 +276,6 @@
     <t>two</t>
   </si>
   <si>
-    <t>9840031214</t>
-  </si>
-  <si>
-    <t>9840008763</t>
-  </si>
-  <si>
     <t>Carol</t>
   </si>
   <si>
@@ -297,28 +291,125 @@
     <t>WF_RRYN_OneN_TwoY</t>
   </si>
   <si>
-    <t>9840081793</t>
-  </si>
-  <si>
-    <t>9840081322</t>
+    <t>9840009684</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>9840083924</t>
+  </si>
+  <si>
+    <t>9840002450</t>
+  </si>
+  <si>
+    <t>9840099099</t>
+  </si>
+  <si>
+    <t>9840090872</t>
+  </si>
+  <si>
+    <t>9840009316</t>
+  </si>
+  <si>
+    <t>9840056420</t>
+  </si>
+  <si>
+    <t>9840066871</t>
+  </si>
+  <si>
+    <t>9840011765</t>
+  </si>
+  <si>
+    <t>9840049035</t>
+  </si>
+  <si>
+    <t>9840039840</t>
+  </si>
+  <si>
+    <t>9840075212</t>
+  </si>
+  <si>
+    <t>9840007428</t>
+  </si>
+  <si>
+    <t>9840007897</t>
+  </si>
+  <si>
+    <t>9840032591</t>
+  </si>
+  <si>
+    <t>9840043293</t>
+  </si>
+  <si>
+    <t>9840089411</t>
+  </si>
+  <si>
+    <t>9840043653</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>9840012006</t>
+    <t>9840021395</t>
+  </si>
+  <si>
+    <t>9840016496</t>
+  </si>
+  <si>
+    <t>9840052546</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9840005196</t>
+  </si>
+  <si>
+    <t>9840078560</t>
+  </si>
+  <si>
+    <t>9840012905</t>
+  </si>
+  <si>
+    <t>9840038776</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>9840014083</t>
+    <t>9840040363</t>
+  </si>
+  <si>
+    <t>9840090670</t>
+  </si>
+  <si>
+    <t>9840058219</t>
+  </si>
+  <si>
+    <t>9840009959</t>
+  </si>
+  <si>
+    <t>9840011059</t>
+  </si>
+  <si>
+    <t>9840049423</t>
+  </si>
+  <si>
+    <t>9840083865</t>
+  </si>
+  <si>
+    <t>9840031930</t>
+  </si>
+  <si>
+    <t>9840006741</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -698,93 +789,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O18"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="BC2" sqref="BC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.54296875" customWidth="1"/>
-    <col min="20" max="20" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.54296875" customWidth="1"/>
-    <col min="23" max="23" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.54296875" customWidth="1"/>
-    <col min="26" max="26" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="9.6328125" customWidth="1"/>
-    <col min="34" max="35" width="15.26953125" customWidth="1"/>
-    <col min="36" max="36" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.81640625" customWidth="1"/>
-    <col min="38" max="38" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="15.26953125" customWidth="1"/>
-    <col min="44" max="44" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="11.453125" customWidth="1"/>
-    <col min="47" max="47" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="48" max="54" width="11.453125" customWidth="1"/>
-    <col min="55" max="55" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="26.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.5703125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.5703125"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.140625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.28515625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="19" max="19" customWidth="true" width="10.5703125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="22" max="22" customWidth="true" width="10.5703125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="25" max="25" customWidth="true" width="10.5703125"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="32" max="33" customWidth="true" width="9.5703125"/>
+    <col min="34" max="35" customWidth="true" width="15.28515625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="37" max="37" customWidth="true" width="17.85546875"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="27.42578125"/>
+    <col min="39" max="40" bestFit="true" customWidth="true" width="13.85546875"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="15.28515625"/>
+    <col min="42" max="43" customWidth="true" width="15.28515625"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="45" max="46" customWidth="true" width="11.42578125"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="48" max="54" customWidth="true" width="11.42578125"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="10.7109375"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>6</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -793,143 +884,143 @@
       <c r="N1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BD1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BE1" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BF1" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BG1" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -939,31 +1030,31 @@
       <c r="C2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>85</v>
+      <c r="F2" t="s" s="0">
+        <v>108</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M2" s="4" t="s">
@@ -972,43 +1063,43 @@
       <c r="N2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" t="s" s="0">
         <v>17</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="Q2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="Q2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="R2" t="s" s="0">
         <v>48</v>
       </c>
       <c r="S2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" t="s" s="0">
         <v>48</v>
       </c>
       <c r="V2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="W2" t="s">
-        <v>17</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="W2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="X2" t="s" s="0">
         <v>48</v>
       </c>
       <c r="Y2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA2" t="s" s="0">
         <v>48</v>
       </c>
       <c r="AB2" s="8" t="s">
@@ -1038,20 +1129,20 @@
       <c r="AJ2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AK2" t="s" s="0">
         <v>29</v>
       </c>
       <c r="AL2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="AO2" t="s" s="0">
         <v>91</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>94</v>
       </c>
       <c r="AP2" s="8" t="s">
         <v>74</v>
@@ -1063,7 +1154,7 @@
         <v>48</v>
       </c>
       <c r="AS2" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AT2" s="4" t="s">
         <v>17</v>
@@ -1072,7 +1163,7 @@
         <v>48</v>
       </c>
       <c r="AV2" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>17</v>
@@ -1081,7 +1172,7 @@
         <v>48</v>
       </c>
       <c r="AY2" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AZ2" s="4" t="s">
         <v>17</v>
@@ -1090,7 +1181,7 @@
         <v>48</v>
       </c>
       <c r="BB2" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="BC2" s="4" t="s">
         <v>17</v>
@@ -1103,7 +1194,7 @@
       </c>
       <c r="BF2" s="4"/>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1113,28 +1204,28 @@
       <c r="C3" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>86</v>
+      <c r="F3" t="s" s="0">
+        <v>110</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" t="s" s="0">
         <v>13</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -1146,11 +1237,11 @@
       <c r="N3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1160,25 +1251,28 @@
       <c r="C4" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F4" t="s" s="0">
+        <v>111</v>
+      </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" t="s" s="0">
         <v>13</v>
       </c>
       <c r="L4" s="4" t="s">
@@ -1190,11 +1284,11 @@
       <c r="N4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1204,28 +1298,28 @@
       <c r="C5" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
-        <v>92</v>
+      <c r="F5" t="s" s="0">
+        <v>112</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" t="s" s="0">
         <v>13</v>
       </c>
       <c r="L5" s="4" t="s">
@@ -1237,12 +1331,12 @@
       <c r="N5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" t="s" s="0">
         <v>17</v>
       </c>
       <c r="AE5" s="4"/>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1252,28 +1346,31 @@
       <c r="C6" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F6" t="s" s="0">
+        <v>114</v>
+      </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" t="s" s="0">
         <v>41</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -1282,11 +1379,11 @@
       <c r="N6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1296,14 +1393,14 @@
       <c r="C7" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
-        <v>93</v>
+      <c r="F7" t="s" s="0">
+        <v>115</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1311,16 +1408,16 @@
       <c r="H7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M7" s="4" t="s">
@@ -1329,11 +1426,11 @@
       <c r="N7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1343,28 +1440,31 @@
       <c r="C8" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F8" t="s" s="0">
+        <v>116</v>
+      </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" t="s" s="0">
         <v>39</v>
       </c>
       <c r="M8" s="4" t="s">
@@ -1373,11 +1473,11 @@
       <c r="N8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1387,31 +1487,31 @@
       <c r="C9" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s">
-        <v>95</v>
+      <c r="F9" t="s" s="0">
+        <v>117</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" t="s" s="0">
         <v>66</v>
       </c>
       <c r="M9" s="4" t="s">
@@ -1420,11 +1520,11 @@
       <c r="N9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1434,28 +1534,31 @@
       <c r="C10" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F10" t="s" s="0">
+        <v>119</v>
+      </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" t="s" s="0">
         <v>39</v>
       </c>
       <c r="M10" s="4" t="s">
@@ -1464,11 +1567,11 @@
       <c r="N10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1478,28 +1581,31 @@
       <c r="C11" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F11" t="s" s="0">
+        <v>120</v>
+      </c>
       <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" t="s" s="0">
         <v>84</v>
       </c>
       <c r="M11" s="4" t="s">
@@ -1508,11 +1614,11 @@
       <c r="N11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1522,28 +1628,31 @@
       <c r="C12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F12" t="s" s="0">
+        <v>121</v>
+      </c>
       <c r="G12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M12" s="4" t="s">
@@ -1552,11 +1661,11 @@
       <c r="N12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1566,28 +1675,31 @@
       <c r="C13" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F13" t="s" s="0">
+        <v>122</v>
+      </c>
       <c r="G13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" t="s" s="0">
         <v>66</v>
       </c>
       <c r="M13" s="4" t="s">
@@ -1596,11 +1708,11 @@
       <c r="N13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1610,28 +1722,31 @@
       <c r="C14" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F14" t="s" s="0">
+        <v>123</v>
+      </c>
       <c r="G14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" t="s" s="0">
         <v>41</v>
       </c>
       <c r="M14" s="4" t="s">
@@ -1640,11 +1755,11 @@
       <c r="N14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1654,31 +1769,31 @@
       <c r="C15" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F15" t="s">
-        <v>97</v>
+      <c r="F15" t="s" s="0">
+        <v>124</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" t="s" s="0">
         <v>39</v>
       </c>
       <c r="M15" s="4" t="s">
@@ -1687,11 +1802,11 @@
       <c r="N15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,28 +1816,31 @@
       <c r="C16" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F16" t="s" s="0">
+        <v>125</v>
+      </c>
       <c r="G16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" t="s" s="0">
         <v>84</v>
       </c>
       <c r="M16" s="4" t="s">
@@ -1731,11 +1849,11 @@
       <c r="N16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -1745,28 +1863,31 @@
       <c r="C17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F17" t="s" s="0">
+        <v>126</v>
+      </c>
       <c r="G17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M17" s="4" t="s">
@@ -1775,11 +1896,11 @@
       <c r="N17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O17" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1789,28 +1910,31 @@
       <c r="C18" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F18" t="s" s="0">
+        <v>127</v>
+      </c>
       <c r="G18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" t="s" s="0">
         <v>66</v>
       </c>
       <c r="M18" s="4" t="s">
@@ -1819,7 +1943,7 @@
       <c r="N18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" t="s" s="0">
         <v>17</v>
       </c>
     </row>

--- a/testData/WebForm/TC033_WF_RRYN_OneN_TwoY_Test.xlsx
+++ b/testData/WebForm/TC033_WF_RRYN_OneN_TwoY_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="145">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -403,6 +403,57 @@
   </si>
   <si>
     <t>9840006741</t>
+  </si>
+  <si>
+    <t>9840077912</t>
+  </si>
+  <si>
+    <t>9840080570</t>
+  </si>
+  <si>
+    <t>9840005384</t>
+  </si>
+  <si>
+    <t>9840015851</t>
+  </si>
+  <si>
+    <t>9840072470</t>
+  </si>
+  <si>
+    <t>9840024704</t>
+  </si>
+  <si>
+    <t>9840022243</t>
+  </si>
+  <si>
+    <t>9840082457</t>
+  </si>
+  <si>
+    <t>9840056429</t>
+  </si>
+  <si>
+    <t>9840002871</t>
+  </si>
+  <si>
+    <t>9840026052</t>
+  </si>
+  <si>
+    <t>9840036390</t>
+  </si>
+  <si>
+    <t>9840052300</t>
+  </si>
+  <si>
+    <t>9840054288</t>
+  </si>
+  <si>
+    <t>9840041536</t>
+  </si>
+  <si>
+    <t>9840069970</t>
+  </si>
+  <si>
+    <t>9840069453</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1088,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1139,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="AN2" t="s" s="0">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AO2" t="s" s="0">
         <v>91</v>
@@ -1211,7 +1262,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1258,7 +1309,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1305,7 +1356,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1353,7 +1404,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1400,7 +1451,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1447,7 +1498,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1494,7 +1545,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1541,7 +1592,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1588,7 +1639,7 @@
         <v>16</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>11</v>
@@ -1635,7 +1686,7 @@
         <v>16</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>11</v>
@@ -1682,7 +1733,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>11</v>
@@ -1729,7 +1780,7 @@
         <v>16</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>11</v>
@@ -1776,7 +1827,7 @@
         <v>16</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>11</v>
@@ -1823,7 +1874,7 @@
         <v>16</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>11</v>
@@ -1870,7 +1921,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>11</v>
@@ -1917,7 +1968,7 @@
         <v>16</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>11</v>

--- a/testData/WebForm/TC033_WF_RRYN_OneN_TwoY_Test.xlsx
+++ b/testData/WebForm/TC033_WF_RRYN_OneN_TwoY_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="111">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -291,169 +291,67 @@
     <t>WF_RRYN_OneN_TwoY</t>
   </si>
   <si>
-    <t>9840009684</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>9840077912</t>
+  </si>
+  <si>
+    <t>9840005384</t>
+  </si>
+  <si>
+    <t>9840015851</t>
+  </si>
+  <si>
+    <t>9840072470</t>
+  </si>
+  <si>
+    <t>9840024704</t>
+  </si>
+  <si>
+    <t>9840022243</t>
+  </si>
+  <si>
+    <t>9840056429</t>
+  </si>
+  <si>
+    <t>9840002871</t>
+  </si>
+  <si>
+    <t>9840026052</t>
+  </si>
+  <si>
+    <t>9840036390</t>
+  </si>
+  <si>
+    <t>9840052300</t>
+  </si>
+  <si>
+    <t>9840054288</t>
+  </si>
+  <si>
+    <t>9840041536</t>
+  </si>
+  <si>
+    <t>9840069970</t>
+  </si>
+  <si>
+    <t>9840069453</t>
+  </si>
+  <si>
+    <t>9840093966</t>
+  </si>
+  <si>
+    <t>9840083059</t>
+  </si>
+  <si>
+    <t>9840037770</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>9840083924</t>
-  </si>
-  <si>
-    <t>9840002450</t>
-  </si>
-  <si>
-    <t>9840099099</t>
-  </si>
-  <si>
-    <t>9840090872</t>
-  </si>
-  <si>
-    <t>9840009316</t>
-  </si>
-  <si>
-    <t>9840056420</t>
-  </si>
-  <si>
-    <t>9840066871</t>
-  </si>
-  <si>
-    <t>9840011765</t>
-  </si>
-  <si>
-    <t>9840049035</t>
-  </si>
-  <si>
-    <t>9840039840</t>
-  </si>
-  <si>
-    <t>9840075212</t>
-  </si>
-  <si>
-    <t>9840007428</t>
-  </si>
-  <si>
-    <t>9840007897</t>
-  </si>
-  <si>
-    <t>9840032591</t>
-  </si>
-  <si>
-    <t>9840043293</t>
-  </si>
-  <si>
-    <t>9840089411</t>
-  </si>
-  <si>
-    <t>9840043653</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>9840021395</t>
-  </si>
-  <si>
-    <t>9840016496</t>
-  </si>
-  <si>
-    <t>9840052546</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>9840005196</t>
-  </si>
-  <si>
-    <t>9840078560</t>
-  </si>
-  <si>
-    <t>9840012905</t>
-  </si>
-  <si>
-    <t>9840038776</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>9840040363</t>
-  </si>
-  <si>
-    <t>9840090670</t>
-  </si>
-  <si>
-    <t>9840058219</t>
-  </si>
-  <si>
-    <t>9840009959</t>
-  </si>
-  <si>
-    <t>9840011059</t>
-  </si>
-  <si>
-    <t>9840049423</t>
-  </si>
-  <si>
-    <t>9840083865</t>
-  </si>
-  <si>
-    <t>9840031930</t>
-  </si>
-  <si>
-    <t>9840006741</t>
-  </si>
-  <si>
-    <t>9840077912</t>
-  </si>
-  <si>
-    <t>9840080570</t>
-  </si>
-  <si>
-    <t>9840005384</t>
-  </si>
-  <si>
-    <t>9840015851</t>
-  </si>
-  <si>
-    <t>9840072470</t>
-  </si>
-  <si>
-    <t>9840024704</t>
-  </si>
-  <si>
-    <t>9840022243</t>
-  </si>
-  <si>
-    <t>9840082457</t>
-  </si>
-  <si>
-    <t>9840056429</t>
-  </si>
-  <si>
-    <t>9840002871</t>
-  </si>
-  <si>
-    <t>9840026052</t>
-  </si>
-  <si>
-    <t>9840036390</t>
-  </si>
-  <si>
-    <t>9840052300</t>
-  </si>
-  <si>
-    <t>9840054288</t>
-  </si>
-  <si>
-    <t>9840041536</t>
-  </si>
-  <si>
-    <t>9840069970</t>
-  </si>
-  <si>
-    <t>9840069453</t>
+    <t>9840087675</t>
   </si>
 </sst>
 </file>
@@ -840,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="BC2" sqref="BC2"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AO8" sqref="AO8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,7 +986,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1115,7 +1013,7 @@
         <v>51</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>67</v>
@@ -1190,10 +1088,10 @@
         <v>0</v>
       </c>
       <c r="AN2" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="AO2" t="s" s="0">
         <v>109</v>
-      </c>
-      <c r="AO2" t="s" s="0">
-        <v>91</v>
       </c>
       <c r="AP2" s="8" t="s">
         <v>74</v>
@@ -1262,7 +1160,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1309,7 +1207,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1336,7 +1234,7 @@
         <v>51</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.25">
@@ -1356,7 +1254,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1383,7 +1281,7 @@
         <v>45</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="AE5" s="4"/>
     </row>
@@ -1404,7 +1302,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1431,7 +1329,7 @@
         <v>52</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.25">
@@ -1451,7 +1349,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1478,7 +1376,7 @@
         <v>45</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.25">
@@ -1498,7 +1396,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1525,7 +1423,7 @@
         <v>52</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.25">
@@ -1545,7 +1443,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1592,7 +1490,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1619,7 +1517,7 @@
         <v>52</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.25">
@@ -1639,7 +1537,7 @@
         <v>16</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>11</v>
@@ -1666,7 +1564,7 @@
         <v>50</v>
       </c>
       <c r="O11" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.25">
@@ -1686,7 +1584,7 @@
         <v>16</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>11</v>
@@ -1713,7 +1611,7 @@
         <v>51</v>
       </c>
       <c r="O12" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.25">
@@ -1733,7 +1631,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>11</v>
@@ -1760,7 +1658,7 @@
         <v>45</v>
       </c>
       <c r="O13" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.25">
@@ -1780,7 +1678,7 @@
         <v>16</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>11</v>
@@ -1807,7 +1705,7 @@
         <v>52</v>
       </c>
       <c r="O14" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.25">
@@ -1827,7 +1725,7 @@
         <v>16</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>11</v>
@@ -1854,7 +1752,7 @@
         <v>45</v>
       </c>
       <c r="O15" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.25">
@@ -1874,7 +1772,7 @@
         <v>16</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>11</v>
@@ -1901,7 +1799,7 @@
         <v>51</v>
       </c>
       <c r="O16" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1921,7 +1819,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>11</v>
@@ -1948,7 +1846,7 @@
         <v>45</v>
       </c>
       <c r="O17" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1968,7 +1866,7 @@
         <v>16</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>11</v>
@@ -1995,7 +1893,7 @@
         <v>52</v>
       </c>
       <c r="O18" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
